--- a/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,93%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 2,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>3,07; 11,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 9,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 2,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>13,68; 29,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 3,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 4,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 1,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>9,1; 17,18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>19,83%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 2,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 5,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,44</t>
+          <t>7,85; 15,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 6,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 4,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>22,59; 34,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 3,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 2,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 3,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,88</t>
+          <t>16,19; 23,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>28,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>2,2; 5,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,51</t>
+          <t>1,2; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 4,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>14,19; 24,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>4,2; 8,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 27,61</t>
+          <t>4,45; 9,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 8,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>31,57; 44,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>3,73; 6,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 16,95</t>
+          <t>3,31; 6,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 5,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,57</t>
+          <t>24,39; 32,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>41,32%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,8</t>
+          <t>7,07; 11,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 11,64</t>
+          <t>1,62; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>3,64; 7,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,51</t>
+          <t>28,29; 42,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,17</t>
+          <t>9,33; 14,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 27,5</t>
+          <t>12,2; 19,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,3</t>
+          <t>5,73; 11,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,2</t>
+          <t>41,04; 54,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,36</t>
+          <t>8,73; 12,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,65</t>
+          <t>4,48; 12,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,76</t>
+          <t>5,29; 9,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,8</t>
+          <t>36,86; 46,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>57,12%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,86</t>
+          <t>18,05; 24,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 15,43</t>
+          <t>15,05; 23,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,27</t>
+          <t>13,12; 21,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,76</t>
+          <t>39,71; 56,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,31</t>
+          <t>16,78; 22,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,82; 35,13</t>
+          <t>18,12; 24,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,47</t>
+          <t>16,41; 24,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,74</t>
+          <t>57,44; 70,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,45</t>
+          <t>18,21; 22,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,95</t>
+          <t>17,58; 22,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,27</t>
+          <t>15,83; 21,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,4</t>
+          <t>51,94; 62,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>68,54%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,05</t>
+          <t>27,77; 36,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,47</t>
+          <t>21,52; 31,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,64</t>
+          <t>25,12; 33,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,24</t>
+          <t>54,49; 71,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,85</t>
+          <t>27,02; 34,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,48; 44,69</t>
+          <t>35,65; 87,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,47</t>
+          <t>24,07; 32,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,12</t>
+          <t>65,49; 79,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,35</t>
+          <t>28,36; 33,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,28; 32,91</t>
+          <t>30,92; 78,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,41</t>
+          <t>25,57; 31,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,0</t>
+          <t>62,69; 73,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>48,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>83,92%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,49</t>
+          <t>41,68; 51,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,74; 43,95</t>
+          <t>34,67; 47,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,14</t>
+          <t>34,75; 43,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,56</t>
+          <t>71,53; 84,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 10,43</t>
+          <t>42,42; 50,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,05; 54,74</t>
+          <t>43,66; 53,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,4</t>
+          <t>47,09; 56,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,9</t>
+          <t>82,8; 90,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,25</t>
+          <t>43,46; 49,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,69; 46,67</t>
+          <t>41,42; 49,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 13,89</t>
+          <t>42,93; 49,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,5</t>
+          <t>79,69; 86,85</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>43,33%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,97; 21,79</t>
+          <t>16,5; 19,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,87; 56,26</t>
+          <t>6,89; 12,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,98; 23,04</t>
+          <t>10,95; 13,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,4; 22,95</t>
+          <t>31,0; 36,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,87; 24,73</t>
+          <t>18,62; 21,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,37; 70,41</t>
+          <t>17,34; 45,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,72</t>
+          <t>15,17; 17,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,48</t>
+          <t>49,0; 54,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,77</t>
+          <t>18,05; 19,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52,08; 62,11</t>
+          <t>13,52; 30,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,91; 22,94</t>
+          <t>13,57; 15,26</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,04; 20,84</t>
+          <t>41,26; 45,38</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>29,43%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>62,89%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>29,33%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>29,03%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>29,95%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>72,95%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>50,37%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>28,9%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>29,67%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>68,54%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>41,64%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>28,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>25,58; 33,5</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>54,0; 71,91</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>25,59; 33,02</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>26,02; 33,17</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>26,23; 34,08</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>65,57; 79,67</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>36,78; 75,25</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>25,56; 32,41</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>26,97; 32,35</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>62,65; 73,46</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>32,95; 60,36</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>26,63; 31,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>40,23%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>78,91%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>43,89%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>43,78%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>52,42%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>86,95%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>55,11%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>42,93%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>46,66%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>83,92%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>50,72%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>43,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>35,42; 44,56</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>72,01; 84,53</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>38,97; 48,73</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>39,44; 47,61</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>48,07; 56,63</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>82,62; 90,7</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>51,6; 58,46</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>39,88; 46,49</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>43,52; 49,59</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>79,78; 87,24</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>47,8; 53,62</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>40,85; 45,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>33,65%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>14,67%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>19,75%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>51,75%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>21,85%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>17,97%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>43,19%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>17,93%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>14,78; 17,53</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>30,93; 36,28</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>12,4; 14,78</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>13,65; 15,71</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>18,3; 21,21</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>49,1; 54,53</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 29,93</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 17,33</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>17,08; 19,02</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>41,18; 45,39</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 23,92</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>14,85; 16,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Polipatología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12269</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2319</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3136</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16316</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>514; 2858</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>407; 3965</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1986; 7433</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>254; 2569</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1635; 18115</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>569; 4334</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8416; 18103</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1034; 4078</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1641; 18154</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1124; 6132</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11486; 21689</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13746</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3582</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36177</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3041</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6227</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8585</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49923</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90; 1705</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8960</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1787; 9518</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9703; 19671</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1327; 4252</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>640; 10961</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2022; 9694</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28924; 44340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1758; 5103</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1974; 14154</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4640; 15262</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40762; 59746</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3490</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8569</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5950</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25761</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21265</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>50206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9643</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29833</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20046</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75966</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2092; 5490</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3715; 16123</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2971; 10962</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19776; 33787</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4111; 8361</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14348; 29426</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9106; 21372</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41491; 57985</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7184; 12667</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20945; 40437</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13836; 28693</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66043; 88208</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12412</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33342</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16312</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41308</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15991</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23051</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56694</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28403</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92962</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>39363</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9765; 15644</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10168; 60831</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10813; 23315</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33289; 50394</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12890; 19728</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>49386; 79069</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15985; 33054</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49059; 64966</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24130; 33328</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46226; 129861</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>30459; 51954</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>87429; 111245</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27134</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63688</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39688</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47510</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28494</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>68250</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51148</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74653</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>55627</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>131938</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>90835</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>122164</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22786; 31416</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>51038; 79527</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30737; 49527</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38924; 54955</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24610; 33622</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57771; 79238</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41698; 62781</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>66552; 81713</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49695; 61405</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>115687; 149514</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>77320; 104736</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>111076; 133690</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33985</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54562</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53516</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>43459</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>35538</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>295914</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52869</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64462</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69523</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>350476</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>106385</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>107920</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29817; 38883</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>44627; 66039</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>46105; 60654</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37652; 49616</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>31083; 39843</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>161356; 396615</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>45482; 61609</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>57869; 70026</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63082; 75585</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>204094; 517388</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>95260; 116240</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>98706; 116262</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>44538</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61744</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57633</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>54451</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>61607</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>113405</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>109460</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>99435</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>106145</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>175149</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>167093</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>153886</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>40062; 49187</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>52619; 71590</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>51238; 64347</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49358; 58211</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>56576; 66869</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>102483; 124726</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>100236; 119609</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>94691; 103764</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>99735; 113117</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>160081; 189527</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>154690; 179096</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>146124; 159256</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>123429</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>224550</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>178783</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>230282</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>151272</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>568405</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>256660</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>393895</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>274701</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>792955</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>435444</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>624177</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>114566; 132629</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>144829; 262539</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>160254; 195561</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>211247; 250807</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>140931; 161116</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>387000; 1022130</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>237349; 280660</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>371992; 413082</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>261953; 288036</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>586076; 1340328</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>410985; 461945</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>594332; 653724</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología</t>
+          <t>Polipatología (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGÍA-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,55</t>
+          <t>0,5; 2,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,49</t>
+          <t>3,31; 11,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,11</t>
+          <t>0,25; 2,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,83</t>
+          <t>0,87; 9,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 29,42</t>
+          <t>13,49; 28,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,26</t>
+          <t>0,57; 2,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,32</t>
+          <t>0,37; 4,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,18</t>
+          <t>8,95; 17,69</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,47</t>
+          <t>0,29; 3,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 15,91</t>
+          <t>7,52; 15,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,71</t>
+          <t>2,24; 6,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,49</t>
+          <t>0,17; 3,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,59; 34,63</t>
+          <t>22,77; 35,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,86</t>
+          <t>1,37; 3,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,6</t>
+          <t>0,35; 2,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 23,74</t>
+          <t>16,11; 23,57</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,78</t>
+          <t>2,53; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,19</t>
+          <t>1,15; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 24,24</t>
+          <t>14,11; 23,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,55</t>
+          <t>4,43; 8,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,12</t>
+          <t>4,67; 9,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,57; 44,12</t>
+          <t>32,26; 45,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,57</t>
+          <t>3,96; 6,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,38</t>
+          <t>3,45; 6,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 32,57</t>
+          <t>24,28; 32,56</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,32</t>
+          <t>5,82; 9,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,7</t>
+          <t>1,9; 9,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,29; 42,83</t>
+          <t>28,21; 43,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,29</t>
+          <t>8,23; 12,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 19,53</t>
+          <t>11,81; 19,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,04; 54,35</t>
+          <t>41,1; 54,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,06</t>
+          <t>7,51; 10,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,58</t>
+          <t>4,42; 12,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,86; 46,9</t>
+          <t>36,68; 46,96</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,89</t>
+          <t>16,03; 22,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,45</t>
+          <t>15,21; 22,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,71; 56,07</t>
+          <t>40,6; 56,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,92</t>
+          <t>15,94; 21,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,85</t>
+          <t>18,34; 25,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,44; 70,53</t>
+          <t>57,9; 70,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 22,5</t>
+          <t>16,62; 20,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,72</t>
+          <t>17,4; 22,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,94; 62,51</t>
+          <t>51,38; 62,08</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,77; 36,21</t>
+          <t>28,05; 35,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,52; 31,85</t>
+          <t>21,37; 30,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>54,49; 71,8</t>
+          <t>53,72; 71,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,02; 34,64</t>
+          <t>27,21; 34,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,65; 87,62</t>
+          <t>35,37; 90,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,49; 79,25</t>
+          <t>65,77; 79,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,36; 33,99</t>
+          <t>28,61; 33,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,92; 78,39</t>
+          <t>30,88; 80,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>62,69; 73,83</t>
+          <t>62,61; 73,85</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,68; 51,17</t>
+          <t>40,63; 49,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 47,17</t>
+          <t>34,56; 47,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,53; 84,36</t>
+          <t>71,48; 84,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,42; 50,14</t>
+          <t>42,5; 49,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,66; 53,14</t>
+          <t>43,82; 52,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>82,8; 90,73</t>
+          <t>82,22; 90,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,46; 49,29</t>
+          <t>42,66; 48,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,42; 49,04</t>
+          <t>41,69; 49,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,69; 86,85</t>
+          <t>80,0; 86,95</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,5; 19,1</t>
+          <t>14,61; 17,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,49</t>
+          <t>7,02; 12,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,0; 36,8</t>
+          <t>31,24; 36,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,62; 21,29</t>
+          <t>17,67; 20,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,34; 45,79</t>
+          <t>17,37; 45,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,0; 54,42</t>
+          <t>49,16; 54,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,85</t>
+          <t>16,66; 18,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,52; 30,92</t>
+          <t>13,45; 31,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,26; 45,38</t>
+          <t>41,29; 45,23</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>979</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>597</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>514; 2858</t>
+          <t>382; 2096</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1986; 7433</t>
+          <t>2143; 7636</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>254; 2569</t>
+          <t>164; 1552</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1635; 18115</t>
+          <t>1602; 16868</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8416; 18103</t>
+          <t>8302; 17639</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1034; 4078</t>
+          <t>813; 2924</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1641; 18154</t>
+          <t>1577; 17429</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11486; 21689</t>
+          <t>11302; 22326</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>789</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90; 1705</t>
+          <t>218; 2380</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 8960</t>
+          <t>0; 9728</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9703; 19671</t>
+          <t>9304; 19372</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1327; 4252</t>
+          <t>1550; 4342</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>640; 10961</t>
+          <t>532; 10017</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28924; 44340</t>
+          <t>29155; 45660</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1758; 5103</t>
+          <t>1969; 5230</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1974; 14154</t>
+          <t>1881; 14421</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40762; 59746</t>
+          <t>40537; 59314</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6153</t>
+          <t>7179</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9643</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2092; 5490</t>
+          <t>2637; 6497</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3715; 16123</t>
+          <t>3562; 16228</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19776; 33787</t>
+          <t>19666; 32752</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4111; 8361</t>
+          <t>4914; 9957</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14348; 29426</t>
+          <t>15050; 30116</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41491; 57985</t>
+          <t>42404; 59172</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7184; 12667</t>
+          <t>8531; 14614</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20945; 40437</t>
+          <t>21835; 41269</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>66043; 88208</t>
+          <t>65756; 88176</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>10976</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15991</t>
+          <t>15595</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28403</t>
+          <t>26572</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9765; 15644</t>
+          <t>8404; 13863</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10168; 60831</t>
+          <t>11941; 61677</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33289; 50394</t>
+          <t>33188; 51041</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12890; 19728</t>
+          <t>12541; 19236</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49386; 79069</t>
+          <t>47790; 78666</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49059; 64966</t>
+          <t>49123; 64728</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24130; 33328</t>
+          <t>22289; 31029</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46226; 129861</t>
+          <t>45586; 130004</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87429; 111245</t>
+          <t>87004; 111381</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27134</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28494</t>
+          <t>28302</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>55627</t>
+          <t>52686</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22786; 31416</t>
+          <t>20718; 28438</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51038; 79527</t>
+          <t>51588; 77560</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38924; 54955</t>
+          <t>39797; 55810</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24610; 33622</t>
+          <t>24234; 33366</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>57771; 79238</t>
+          <t>58494; 80406</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>66552; 81713</t>
+          <t>67079; 82102</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>49695; 61405</t>
+          <t>46738; 58647</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115687; 149514</t>
+          <t>114487; 150361</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>111076; 133690</t>
+          <t>109888; 132772</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33985</t>
+          <t>33111</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>35538</t>
+          <t>35530</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>69523</t>
+          <t>68641</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>29817; 38883</t>
+          <t>29271; 37272</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>44627; 66039</t>
+          <t>44319; 64251</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>37652; 49616</t>
+          <t>37124; 49104</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31083; 39843</t>
+          <t>31540; 39869</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>161356; 396615</t>
+          <t>160078; 409568</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57869; 70026</t>
+          <t>58118; 70001</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63082; 75585</t>
+          <t>63027; 74469</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>204094; 517388</t>
+          <t>203812; 533770</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>98706; 116262</t>
+          <t>98593; 116279</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>44538</t>
+          <t>39916</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>61607</t>
+          <t>60461</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>106145</t>
+          <t>100377</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40062; 49187</t>
+          <t>36196; 44149</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>52619; 71590</t>
+          <t>52452; 71344</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>49358; 58211</t>
+          <t>49325; 58611</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>56576; 66869</t>
+          <t>56022; 65263</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>102483; 124726</t>
+          <t>102860; 123707</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>94691; 103764</t>
+          <t>94027; 103438</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>99735; 113117</t>
+          <t>94235; 106942</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>160081; 189527</t>
+          <t>161107; 191784</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>146124; 159256</t>
+          <t>146688; 159440</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>123429</t>
+          <t>114243</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>151272</t>
+          <t>150262</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>274701</t>
+          <t>264506</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>114566; 132629</t>
+          <t>105535; 123091</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>144829; 262539</t>
+          <t>147607; 263931</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>211247; 250807</t>
+          <t>212904; 249124</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>140931; 161116</t>
+          <t>141128; 160032</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>387000; 1022130</t>
+          <t>387714; 1010790</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>371992; 413082</t>
+          <t>373168; 413686</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>261953; 288036</t>
+          <t>253413; 277916</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>586076; 1340328</t>
+          <t>583110; 1365564</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>594332; 653724</t>
+          <t>594875; 651530</t>
         </is>
       </c>
     </row>
